--- a/パラメータシート_sample.xlsx
+++ b/パラメータシート_sample.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIAKI\Desktop\dotlife\01_教材\03_中級編\infra-cource-movie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIAKI\Desktop\dotlife\01_教材\03_中級編\infra-course-movie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F6B87A-38C4-450F-A7AF-180426A4A8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2393FF03-F255-44C6-A610-2FE1C9ED2A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構成図" sheetId="16" r:id="rId1"/>
     <sheet name="(APP)VPC" sheetId="6" r:id="rId2"/>
     <sheet name="(APP)EC2" sheetId="14" r:id="rId3"/>
     <sheet name="(APP)RDS" sheetId="15" r:id="rId4"/>
-    <sheet name="(LP)CloudFront" sheetId="17" r:id="rId5"/>
-    <sheet name="(LP)S3" sheetId="18" r:id="rId6"/>
-    <sheet name="(OPE)IAM" sheetId="8" r:id="rId7"/>
+    <sheet name="(APP)ALB" sheetId="19" r:id="rId5"/>
+    <sheet name="(APP)CloudFront" sheetId="21" r:id="rId6"/>
+    <sheet name="(APP)S3" sheetId="20" r:id="rId7"/>
+    <sheet name="(LP)CloudFront" sheetId="17" r:id="rId8"/>
+    <sheet name="(LP)S3" sheetId="18" r:id="rId9"/>
+    <sheet name="(OPE)IAM" sheetId="8" r:id="rId10"/>
+    <sheet name="(Monitoring)CloudWatch" sheetId="22" r:id="rId11"/>
+    <sheet name="(Monitoring)SNS" sheetId="23" r:id="rId12"/>
+    <sheet name="(Monitoring)Budget" sheetId="24" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="179">
   <si>
     <t>大項目</t>
   </si>
@@ -435,12 +441,181 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>ロードバランサータイプ</t>
+  </si>
+  <si>
+    <t>スキーム</t>
+  </si>
+  <si>
+    <t>ロードバランサーの IP アドレスタイプ</t>
+  </si>
+  <si>
+    <t>IPプール</t>
+  </si>
+  <si>
+    <t>アベイラビリティーゾーンとサブネット</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>リスナーとルーティング</t>
+  </si>
+  <si>
+    <t>リスナー</t>
+  </si>
+  <si>
+    <t>IP アドレスタイプ</t>
+  </si>
+  <si>
+    <t>プロトコルバージョン</t>
+  </si>
+  <si>
+    <t>ヘルスチェックパス</t>
+  </si>
+  <si>
+    <t>TG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+  </si>
+  <si>
+    <t>メトリクスの選択</t>
+  </si>
+  <si>
+    <t>AWS 名前空間</t>
+  </si>
+  <si>
+    <t>InstanceId</t>
+  </si>
+  <si>
+    <t>統計</t>
+  </si>
+  <si>
+    <t>期間</t>
+  </si>
+  <si>
+    <t>しきい値の種類</t>
+  </si>
+  <si>
+    <t>CPUUtilization が次の時...</t>
+  </si>
+  <si>
+    <t>... よりも</t>
+  </si>
+  <si>
+    <t>アラーム状態トリガー</t>
+  </si>
+  <si>
+    <t>次の SNS トピックに通知を送信</t>
+  </si>
+  <si>
+    <t>通知の送信先</t>
+  </si>
+  <si>
+    <t>Lamda</t>
+  </si>
+  <si>
+    <t>Auto Scaling</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>Systems Manage</t>
+  </si>
+  <si>
+    <t>調査</t>
+  </si>
+  <si>
+    <t>アラーム名</t>
+  </si>
+  <si>
+    <t>SNS</t>
+  </si>
+  <si>
+    <t>オプション</t>
+  </si>
+  <si>
+    <t>アクセスポリシー</t>
+  </si>
+  <si>
+    <t>データ保護ポリシー</t>
+  </si>
+  <si>
+    <t>カスタムデータ識別子の設定 ・正規表現</t>
+  </si>
+  <si>
+    <t>拒否設定</t>
+  </si>
+  <si>
+    <t>設定を識別解除</t>
+  </si>
+  <si>
+    <t>設定を監査</t>
+  </si>
+  <si>
+    <t>配信ポリシー (HTTP/S) - オプション 情報</t>
+  </si>
+  <si>
+    <t>配信ステータスのログ記録 - オプション 情報</t>
+  </si>
+  <si>
+    <t>サブスクリプション</t>
+  </si>
+  <si>
+    <t>トピック ARN</t>
+  </si>
+  <si>
+    <t>サブスクリプションフィルターポリシー -</t>
+  </si>
+  <si>
+    <t>Reddrive</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>ウィジェットの追加</t>
+  </si>
+  <si>
+    <t>データソースタイプ</t>
+  </si>
+  <si>
+    <t>ウィジェットの設定</t>
+  </si>
+  <si>
+    <t>メトリクスグラフの追加</t>
+  </si>
+  <si>
+    <t>AWS Budgets</t>
+  </si>
+  <si>
+    <t>予算の設定</t>
+  </si>
+  <si>
+    <t>テンプレート- 新規</t>
+  </si>
+  <si>
+    <t>予算名</t>
+  </si>
+  <si>
+    <t>予算額</t>
+  </si>
+  <si>
+    <t>E メールの受信者</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -489,6 +664,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -522,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,6 +720,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -757,8 +940,506 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4268FBD-2A8C-4E26-A279-DE21AFF55576}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8B2EFC-BCCC-47AB-95C2-14B1439C4E86}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0984B02F-9290-47DE-97E8-398A3354D510}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -771,18 +1452,18 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.54296875" style="5"/>
-    <col min="4" max="4" width="24.26953125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="12.54296875" style="5"/>
+    <col min="1" max="3" width="12.5703125" style="5"/>
+    <col min="4" max="4" width="24.28515625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +1477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -808,7 +1489,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
@@ -817,14 +1498,14 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -834,7 +1515,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>76</v>
@@ -844,7 +1525,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -856,7 +1537,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
@@ -865,7 +1546,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -875,7 +1556,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>78</v>
@@ -885,7 +1566,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -897,7 +1578,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
@@ -906,7 +1587,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
@@ -915,7 +1596,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
@@ -924,7 +1605,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
@@ -933,7 +1614,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>11</v>
@@ -943,7 +1624,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>78</v>
@@ -953,7 +1634,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -965,31 +1646,31 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
@@ -998,31 +1679,31 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1031,31 +1712,31 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1064,31 +1745,31 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -1100,7 +1781,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>70</v>
@@ -1110,7 +1791,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
@@ -1119,7 +1800,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1128,7 +1809,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1821,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1830,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1839,7 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="D45" s="7"/>
     </row>
   </sheetData>
@@ -1175,19 +1856,19 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="5"/>
-    <col min="2" max="2" width="47.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="5"/>
-    <col min="4" max="4" width="15.90625" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="12.54296875" style="5"/>
+    <col min="1" max="1" width="12.5703125" style="5"/>
+    <col min="2" max="2" width="47.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="5"/>
+    <col min="4" max="4" width="15.85546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1215,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
@@ -1223,7 +1904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
@@ -1231,25 +1912,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
@@ -1257,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
@@ -1281,13 +1962,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1303,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
@@ -1311,7 +1992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1319,7 +2000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1333,7 +2014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
@@ -1341,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>56</v>
       </c>
@@ -1349,7 +2030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
@@ -1357,13 +2038,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1375,7 +2056,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1383,7 +2064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>11</v>
@@ -1392,7 +2073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +2084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +2092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>80</v>
       </c>
@@ -1422,7 +2103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1430,7 +2111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1438,22 +2119,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
@@ -1461,22 +2142,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>11</v>
       </c>
@@ -1501,14 +2182,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="5"/>
-    <col min="2" max="2" width="23.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="12.54296875" style="5"/>
+    <col min="1" max="1" width="12.5703125" style="5"/>
+    <col min="2" max="2" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +2203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +2214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
@@ -1541,7 +2222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
@@ -1557,7 +2238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>60</v>
       </c>
@@ -1565,7 +2246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
@@ -1573,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
@@ -1581,7 +2262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
@@ -1589,7 +2270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>64</v>
       </c>
@@ -1597,7 +2278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1605,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1613,7 +2294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +2302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1629,7 +2310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>65</v>
       </c>
@@ -1637,7 +2318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>66</v>
       </c>
@@ -1645,7 +2326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1653,7 +2334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1661,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>67</v>
@@ -1670,7 +2351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>68</v>
@@ -1679,7 +2360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>11</v>
@@ -1688,7 +2369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1699,7 +2380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1707,7 +2388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
@@ -1715,7 +2396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1723,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1734,7 +2415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
@@ -1742,13 +2423,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>11</v>
       </c>
@@ -1756,7 +2437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
@@ -1767,7 +2448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +2456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
@@ -1786,7 +2467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
@@ -1794,7 +2475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1802,22 +2483,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>42</v>
       </c>
@@ -1825,22 +2506,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>11</v>
       </c>
@@ -1855,6 +2536,856 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49936ABE-5803-47AE-85EC-1F96889E3B1A}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E2DB53-03D0-4FB5-B8C8-1959C54BB361}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBD1A5-4F78-4E65-8736-30EF19EAC777}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2776530C-A6E4-4CB3-94D7-E5A3E80CAD7F}">
   <dimension ref="A1:F34"/>
   <sheetViews>
@@ -1862,9 +3393,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1884,7 +3415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -1896,7 +3427,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
         <v>84</v>
@@ -1906,7 +3437,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>85</v>
@@ -1916,7 +3447,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>86</v>
@@ -1926,7 +3457,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
@@ -1938,7 +3469,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>89</v>
@@ -1948,7 +3479,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>90</v>
@@ -1958,7 +3489,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>91</v>
@@ -1968,7 +3499,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>92</v>
@@ -1978,7 +3509,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>93</v>
@@ -1988,7 +3519,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
         <v>94</v>
@@ -1998,7 +3529,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>95</v>
@@ -2008,7 +3539,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
         <v>96</v>
@@ -2018,7 +3549,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -2030,7 +3561,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>98</v>
@@ -2040,7 +3571,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>99</v>
@@ -2050,7 +3581,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
         <v>100</v>
@@ -2060,7 +3591,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
         <v>101</v>
@@ -2070,7 +3601,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>102</v>
@@ -2080,7 +3611,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>103</v>
@@ -2090,7 +3621,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>104</v>
@@ -2100,7 +3631,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>105</v>
       </c>
@@ -2110,7 +3641,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>106</v>
       </c>
@@ -2120,7 +3651,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
@@ -2132,7 +3663,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>107</v>
       </c>
@@ -2144,7 +3675,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2152,7 +3683,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2160,7 +3691,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2168,7 +3699,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2176,7 +3707,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2184,7 +3715,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2192,7 +3723,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2200,7 +3731,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2214,7 +3745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5E607D-58A2-4850-8296-B6EE8C55631B}">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -2222,9 +3753,9 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2244,7 +3775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>109</v>
       </c>
@@ -2256,7 +3787,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -2266,7 +3797,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>111</v>
@@ -2276,7 +3807,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>112</v>
@@ -2286,7 +3817,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>44</v>
@@ -2296,7 +3827,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>113</v>
@@ -2306,7 +3837,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>114</v>
@@ -2316,7 +3847,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>45</v>
@@ -2326,7 +3857,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>115</v>
@@ -2336,7 +3867,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>116</v>
@@ -2346,7 +3877,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
         <v>117</v>
@@ -2356,7 +3887,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>118</v>
@@ -2366,7 +3897,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
         <v>119</v>
@@ -2376,7 +3907,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
         <v>120</v>
@@ -2386,7 +3917,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>11</v>
@@ -2396,7 +3927,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>121</v>
       </c>
@@ -2408,7 +3939,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>122</v>
       </c>
@@ -2418,7 +3949,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2426,7 +3957,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2434,7 +3965,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2442,7 +3973,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2450,7 +3981,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2458,7 +3989,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2466,7 +3997,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2474,7 +4005,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2482,7 +4013,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2494,130 +4025,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="12.54296875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>